--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitbhubaneswar-my.sharepoint.com/personal/da11_iitbbs_ac_in/Documents/Derek/Personal/jeet/stock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c3e7d6219697299e/Daily_Execution/Data_Anly/jeet-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC104839E99B5E425ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7798EDC-5124-4616-8177-501C78B9EDCB}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC104839E99B5E425ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C796D85-48CD-49C7-BCF9-D4D25C63BAD5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25455" yWindow="2055" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>today</t>
   </si>
@@ -36,19 +36,37 @@
     <t>ticker</t>
   </si>
   <si>
-    <t>ECX</t>
-  </si>
-  <si>
-    <t>HOTH</t>
-  </si>
-  <si>
-    <t>JFBR</t>
-  </si>
-  <si>
-    <t>LLAP</t>
-  </si>
-  <si>
-    <t>CVRX</t>
+    <t>CMND</t>
+  </si>
+  <si>
+    <t>INAB</t>
+  </si>
+  <si>
+    <t>PACW</t>
+  </si>
+  <si>
+    <t>SOBR</t>
+  </si>
+  <si>
+    <t>RDHL</t>
+  </si>
+  <si>
+    <t>CNTG</t>
+  </si>
+  <si>
+    <t>PBLA</t>
+  </si>
+  <si>
+    <t>ETAO</t>
+  </si>
+  <si>
+    <t>EUDA</t>
+  </si>
+  <si>
+    <t>LUNR</t>
+  </si>
+  <si>
+    <t>ELEV</t>
   </si>
 </sst>
 </file>
@@ -367,19 +385,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -390,59 +408,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44691</v>
+        <v>45041</v>
       </c>
       <c r="B2" s="1">
-        <v>44692</v>
+        <v>45042</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44691</v>
+        <v>45041</v>
       </c>
       <c r="B3" s="1">
-        <v>44692</v>
+        <v>45042</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44692</v>
+        <v>45041</v>
       </c>
       <c r="B4" s="1">
-        <v>44693</v>
+        <v>45042</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44692</v>
+        <v>45041</v>
       </c>
       <c r="B5" s="1">
-        <v>44693</v>
+        <v>45042</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44693</v>
+        <v>45041</v>
       </c>
       <c r="B6" s="1">
-        <v>44694</v>
+        <v>45042</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45042</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45042</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45042</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45042</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45042</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45042</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c3e7d6219697299e/Daily_Execution/Data_Anly/jeet-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitbhubaneswar-my.sharepoint.com/personal/da11_iitbbs_ac_in/Documents/Derek/Personal/jeet/jeet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC104839E99B5E425ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C796D85-48CD-49C7-BCF9-D4D25C63BAD5}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_F25DC773A252ABDACC104839E99B5E425ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55CC68B1-73F1-426C-9653-51D638DA9511}"/>
   <bookViews>
-    <workbookView xWindow="-25455" yWindow="2055" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="187">
   <si>
     <t>today</t>
   </si>
@@ -36,37 +36,556 @@
     <t>ticker</t>
   </si>
   <si>
-    <t>CMND</t>
+    <t>HILS</t>
+  </si>
+  <si>
+    <t>CFRX</t>
+  </si>
+  <si>
+    <t>RNAZ</t>
+  </si>
+  <si>
+    <t>2/1/2023</t>
+  </si>
+  <si>
+    <t>2/2/2023</t>
+  </si>
+  <si>
+    <t>2/3/2023</t>
+  </si>
+  <si>
+    <t>2/6/2023</t>
+  </si>
+  <si>
+    <t>2/7/2023</t>
+  </si>
+  <si>
+    <t>2/8/2023</t>
+  </si>
+  <si>
+    <t>2/9/2023</t>
+  </si>
+  <si>
+    <t>2/10/2023</t>
+  </si>
+  <si>
+    <t>2/13/2023</t>
+  </si>
+  <si>
+    <t>2/14/2023</t>
+  </si>
+  <si>
+    <t>2/15/2023</t>
+  </si>
+  <si>
+    <t>2/16/2023</t>
+  </si>
+  <si>
+    <t>2/17/2023</t>
+  </si>
+  <si>
+    <t>2/21/2023</t>
+  </si>
+  <si>
+    <t>2/22/2023</t>
+  </si>
+  <si>
+    <t>2/23/2023</t>
+  </si>
+  <si>
+    <t>2/24/2023</t>
+  </si>
+  <si>
+    <t>2/27/2023</t>
+  </si>
+  <si>
+    <t>2/28/2023</t>
+  </si>
+  <si>
+    <t>ADIL</t>
+  </si>
+  <si>
+    <t>TBLA</t>
+  </si>
+  <si>
+    <t>SBET</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>FSTX</t>
+  </si>
+  <si>
+    <t>EDBL</t>
+  </si>
+  <si>
+    <t>MITQ</t>
+  </si>
+  <si>
+    <t>ELYS</t>
+  </si>
+  <si>
+    <t>SLGG</t>
+  </si>
+  <si>
+    <t>EBET</t>
+  </si>
+  <si>
+    <t>MSGM</t>
+  </si>
+  <si>
+    <t>MGAM</t>
+  </si>
+  <si>
+    <t>MRIN</t>
+  </si>
+  <si>
+    <t>AUVI</t>
+  </si>
+  <si>
+    <t>ZKIN</t>
+  </si>
+  <si>
+    <t>UNCY</t>
+  </si>
+  <si>
+    <t>CVNA</t>
+  </si>
+  <si>
+    <t>SNCE</t>
+  </si>
+  <si>
+    <t>CYRN</t>
+  </si>
+  <si>
+    <t>GNS</t>
+  </si>
+  <si>
+    <t>RMTI</t>
+  </si>
+  <si>
+    <t>BBBY</t>
+  </si>
+  <si>
+    <t>CBIO</t>
+  </si>
+  <si>
+    <t>YVR</t>
+  </si>
+  <si>
+    <t>LCI</t>
+  </si>
+  <si>
+    <t>BPTS</t>
+  </si>
+  <si>
+    <t>ZVSA</t>
+  </si>
+  <si>
+    <t>TENX</t>
+  </si>
+  <si>
+    <t>HSCS</t>
+  </si>
+  <si>
+    <t>PSNL</t>
+  </si>
+  <si>
+    <t>AWH</t>
+  </si>
+  <si>
+    <t>ALR</t>
+  </si>
+  <si>
+    <t>PCSA</t>
+  </si>
+  <si>
+    <t>PXMD</t>
+  </si>
+  <si>
+    <t>GRCL</t>
+  </si>
+  <si>
+    <t>MGTA</t>
+  </si>
+  <si>
+    <t>SIDU</t>
+  </si>
+  <si>
+    <t>RSLS</t>
+  </si>
+  <si>
+    <t>TMC</t>
+  </si>
+  <si>
+    <t>BGXX</t>
+  </si>
+  <si>
+    <t>GFAI</t>
+  </si>
+  <si>
+    <t>OMER</t>
+  </si>
+  <si>
+    <t>GDC</t>
+  </si>
+  <si>
+    <t>BZFD</t>
+  </si>
+  <si>
+    <t>QUBT</t>
+  </si>
+  <si>
+    <t>RVSN</t>
+  </si>
+  <si>
+    <t>QBTS</t>
+  </si>
+  <si>
+    <t>SOUN</t>
+  </si>
+  <si>
+    <t>SECO</t>
+  </si>
+  <si>
+    <t>RCRT</t>
+  </si>
+  <si>
+    <t>KAL</t>
+  </si>
+  <si>
+    <t>ARQQ</t>
+  </si>
+  <si>
+    <t>FFIE</t>
+  </si>
+  <si>
+    <t>KRKR</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>MYSZ</t>
+  </si>
+  <si>
+    <t>SLQT</t>
+  </si>
+  <si>
+    <t>ONTX</t>
+  </si>
+  <si>
+    <t>KPRX</t>
+  </si>
+  <si>
+    <t>INBS</t>
+  </si>
+  <si>
+    <t>LIZI</t>
+  </si>
+  <si>
+    <t>VCNX</t>
+  </si>
+  <si>
+    <t>LUCY</t>
+  </si>
+  <si>
+    <t>CYAD</t>
+  </si>
+  <si>
+    <t>MYO</t>
+  </si>
+  <si>
+    <t>CELZ</t>
+  </si>
+  <si>
+    <t>WIMI</t>
+  </si>
+  <si>
+    <t>HOTH</t>
+  </si>
+  <si>
+    <t>ICU</t>
+  </si>
+  <si>
+    <t>REKR</t>
+  </si>
+  <si>
+    <t>EVAX</t>
+  </si>
+  <si>
+    <t>ZCMD</t>
+  </si>
+  <si>
+    <t>WETG</t>
+  </si>
+  <si>
+    <t>SNES</t>
+  </si>
+  <si>
+    <t>AWIN</t>
+  </si>
+  <si>
+    <t>LGHL</t>
+  </si>
+  <si>
+    <t>AGLE</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>PRFX</t>
+  </si>
+  <si>
+    <t>ONVO</t>
+  </si>
+  <si>
+    <t>SPRB</t>
+  </si>
+  <si>
+    <t>SRZN</t>
+  </si>
+  <si>
+    <t>WLDS</t>
+  </si>
+  <si>
+    <t>GSUN</t>
+  </si>
+  <si>
+    <t>HPCO</t>
+  </si>
+  <si>
+    <t>FRGT</t>
+  </si>
+  <si>
+    <t>BJDX</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>EZFL</t>
+  </si>
+  <si>
+    <t>SBFM</t>
+  </si>
+  <si>
+    <t>HEXO</t>
+  </si>
+  <si>
+    <t>XPON</t>
+  </si>
+  <si>
+    <t>TOPS</t>
+  </si>
+  <si>
+    <t>VLON</t>
+  </si>
+  <si>
+    <t>IVDA</t>
+  </si>
+  <si>
+    <t>HYPR</t>
+  </si>
+  <si>
+    <t>MTC</t>
+  </si>
+  <si>
+    <t>SILO</t>
+  </si>
+  <si>
+    <t>IMV</t>
+  </si>
+  <si>
+    <t>CLNN</t>
+  </si>
+  <si>
+    <t>SHFS</t>
+  </si>
+  <si>
+    <t>COMS</t>
+  </si>
+  <si>
+    <t>AMST</t>
+  </si>
+  <si>
+    <t>GNUS</t>
+  </si>
+  <si>
+    <t>FUSN</t>
+  </si>
+  <si>
+    <t>BWV</t>
+  </si>
+  <si>
+    <t>GROV</t>
+  </si>
+  <si>
+    <t>SERA</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>AMV</t>
+  </si>
+  <si>
+    <t>CPOP</t>
+  </si>
+  <si>
+    <t>TNON</t>
+  </si>
+  <si>
+    <t>ARBK</t>
+  </si>
+  <si>
+    <t>PGY</t>
+  </si>
+  <si>
+    <t>DGLY</t>
+  </si>
+  <si>
+    <t>INZY</t>
+  </si>
+  <si>
+    <t>CISO</t>
+  </si>
+  <si>
+    <t>EBS</t>
+  </si>
+  <si>
+    <t>NEXI</t>
+  </si>
+  <si>
+    <t>APLT</t>
+  </si>
+  <si>
+    <t>GLYC</t>
+  </si>
+  <si>
+    <t>AXLA</t>
+  </si>
+  <si>
+    <t>BOXD</t>
+  </si>
+  <si>
+    <t>SPRC</t>
+  </si>
+  <si>
+    <t>UUU</t>
+  </si>
+  <si>
+    <t>NOGN</t>
+  </si>
+  <si>
+    <t>IBIO</t>
+  </si>
+  <si>
+    <t>IFBD</t>
+  </si>
+  <si>
+    <t>MOB</t>
+  </si>
+  <si>
+    <t>CMMB</t>
+  </si>
+  <si>
+    <t>ARBE</t>
+  </si>
+  <si>
+    <t>CGTX</t>
+  </si>
+  <si>
+    <t>JFBR</t>
+  </si>
+  <si>
+    <t>LLAP</t>
+  </si>
+  <si>
+    <t>SRNE</t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>OCEA</t>
+  </si>
+  <si>
+    <t>ENVX</t>
   </si>
   <si>
     <t>INAB</t>
   </si>
   <si>
-    <t>PACW</t>
-  </si>
-  <si>
-    <t>SOBR</t>
-  </si>
-  <si>
-    <t>RDHL</t>
-  </si>
-  <si>
-    <t>CNTG</t>
-  </si>
-  <si>
-    <t>PBLA</t>
+    <t>GNPX</t>
+  </si>
+  <si>
+    <t>JNCE</t>
+  </si>
+  <si>
+    <t>BAER</t>
+  </si>
+  <si>
+    <t>TMBR</t>
+  </si>
+  <si>
+    <t>ASLN</t>
   </si>
   <si>
     <t>ETAO</t>
   </si>
   <si>
-    <t>EUDA</t>
+    <t>AKBA</t>
+  </si>
+  <si>
+    <t>PIXY</t>
+  </si>
+  <si>
+    <t>ORTX</t>
   </si>
   <si>
     <t>LUNR</t>
   </si>
   <si>
-    <t>ELEV</t>
+    <t>PSHG</t>
+  </si>
+  <si>
+    <t>LHDX</t>
+  </si>
+  <si>
+    <t>SATX</t>
+  </si>
+  <si>
+    <t>VTVT</t>
+  </si>
+  <si>
+    <t>MLEC</t>
+  </si>
+  <si>
+    <t>BRMK</t>
+  </si>
+  <si>
+    <t>CDIO</t>
+  </si>
+  <si>
+    <t>SINT</t>
+  </si>
+  <si>
+    <t>BVS</t>
+  </si>
+  <si>
+    <t>CLRB</t>
+  </si>
+  <si>
+    <t>CHNR</t>
+  </si>
+  <si>
+    <t>RNER</t>
+  </si>
+  <si>
+    <t>ILAG</t>
   </si>
 </sst>
 </file>
@@ -102,8 +621,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -385,148 +913,2161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45042</v>
-      </c>
-      <c r="C2" t="s">
+        <v>44957</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45042</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45042</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45042</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45042</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45042</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45042</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45042</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45042</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45042</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45042</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
